--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T13:27:06+00:00</t>
+    <t>2024-02-07T10:51:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T10:51:16+00:00</t>
+    <t>2024-02-07T12:41:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T12:41:41+00:00</t>
+    <t>2024-02-07T13:10:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:10:13+00:00</t>
+    <t>2024-02-11T13:41:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:41:38+00:00</t>
+    <t>2024-02-11T13:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T13:51:29+00:00</t>
+    <t>2024-02-11T14:03:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T14:03:23+00:00</t>
+    <t>2024-02-11T15:25:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:25:57+00:00</t>
+    <t>2024-02-11T15:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-11T15:31:51+00:00</t>
+    <t>2024-02-15T16:52:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-15T16:52:36+00:00</t>
+    <t>2024-02-23T13:17:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-23T13:17:17+00:00</t>
+    <t>2024-04-29T09:01:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/StructureDefinition/FrSchedule</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -232,6 +232,15 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: iCalendar</t>
+  </si>
+  <si>
+    <t>Mapping: FiveWs Pattern Mapping</t>
   </si>
   <si>
     <t xml:space="preserve">Availability
@@ -258,7 +267,13 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>BEGIN:VFREEBUSY  ???  END:VFREEBUSY (If your fhir server provides this information via calDAV, then you may want to include addressing information in a URL section, and with the search, a DTSTART and DTEND component can be included to indicate the range of time that has been covered in the collection of slots, where these overlap the resources period values. For all slots that reference this resource, include a FREEBUSY row for each slot)</t>
   </si>
   <si>
     <t>Schedule.id</t>
@@ -302,168 +317,342 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Schedule.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>Schedule.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Schedule.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Schedule.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Schedule.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Schedule.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:$this}
+</t>
+  </si>
+  <si>
+    <t>Slice based on the canonical url value</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Schedule.meta.profile:fr-canonical</t>
+  </si>
+  <si>
+    <t>fr-canonical</t>
+  </si>
+  <si>
+    <t>Schedule.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Schedule.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Schedule.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Schedule.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Schedule.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Schedule.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Schedule.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Schedule.extension:serviceTypeDuration</t>
+  </si>
+  <si>
+    <t>serviceTypeDuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-service-type-duration}
+</t>
+  </si>
+  <si>
+    <t>FR Core Service Type Duration Extension</t>
+  </si>
+  <si>
+    <t>This French extension allows to associate the type of service with the duration of this service | Cette extension française permet d'associer le type de service avec la durée de ce service.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Schedule.extension:availabilityTime</t>
+  </si>
+  <si>
+    <t>availabilityTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-schedule-availability-time}
 </t>
   </si>
   <si>
-    <t>Schedule.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Schedule.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Schedule.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Schedule.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Schedule.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Schedule.extension:serviceTypeDuration</t>
-  </si>
-  <si>
-    <t>serviceTypeDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrServiceTypeDuration}
-</t>
-  </si>
-  <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
-  </si>
-  <si>
-    <t>Schedule.extension:availabilityTime</t>
-  </si>
-  <si>
-    <t>availabilityTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://interopsante.org/fhir/StructureDefinition/FrScheduleAvailabiltyTime}
-</t>
+    <t>FR Core Schedule availability time Extension</t>
+  </si>
+  <si>
+    <t>This extension specifies a list of periods of time (recurrent or not). It specifies the type of Schedule (busy-unavailable|free), the identifier of the period, the period with a possibly recurrence rule, the date of creation of the period and the priority of this period | Cette extension permet de préciser une liste de période de temps (récurrentes ou non). Elle spécifie le type de Schedule (busy-unavailable|free), l'identifiant de la période, la période (récurrente ou non avec une règle de récurrence dans le cas d'une période récurrente, la date de création de la période et une priorité.</t>
   </si>
   <si>
     <t>Schedule.modifierExtension</t>
@@ -495,264 +684,121 @@
     <t>External Ids for this item.</t>
   </si>
   <si>
-    <t>Schedule.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
+    <t>UID</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>Schedule.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.type</t>
+    <t>Whether this schedule is in active use</t>
+  </si>
+  <si>
+    <t>Whether this schedule record is in active use or should not be used (such as was entered in error).</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Schedule.serviceCategory</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.period</t>
+    <t>High-level category</t>
+  </si>
+  <si>
+    <t>A broad categorization of the service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-category</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>Schedule.serviceType</t>
+  </si>
+  <si>
+    <t>Specific service</t>
+  </si>
+  <si>
+    <t>The specific service that is to be performed during this appointment.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+  </si>
+  <si>
+    <t>Schedule.specialty</t>
+  </si>
+  <si>
+    <t>Type of specialty needed</t>
+  </si>
+  <si>
+    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-practitioner-specialty</t>
+  </si>
+  <si>
+    <t>Schedule.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|PractitionerRole|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-healthcare-service|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-location|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner)
+</t>
+  </si>
+  <si>
+    <t>Resource(s) that availability information is being provided for</t>
+  </si>
+  <si>
+    <t>Slots that reference this schedule resource provide the availability details to these referenced resource(s).</t>
+  </si>
+  <si>
+    <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
+  </si>
+  <si>
+    <t>ATTENDEE:MAILTO:john_public@host2.com This can be populated with a value from the referenced resource</t>
+  </si>
+  <si>
+    <t>FiveWs.subject</t>
+  </si>
+  <si>
+    <t>Schedule.planningHorizon</t>
   </si>
   <si>
     <t xml:space="preserve">Period
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
-    <t>Schedule.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
-    <t>Schedule.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this schedule is in active use</t>
-  </si>
-  <si>
-    <t>Whether this schedule record is in active use or should not be used (such as was entered in error).</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>Schedule.serviceCategory</t>
-  </si>
-  <si>
-    <t>High-level category</t>
-  </si>
-  <si>
-    <t>A broad categorization of the service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-category</t>
-  </si>
-  <si>
-    <t>Schedule.serviceType</t>
-  </si>
-  <si>
-    <t>Specific service</t>
-  </si>
-  <si>
-    <t>The specific service that is to be performed during this appointment.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
-  </si>
-  <si>
-    <t>Schedule.specialty</t>
-  </si>
-  <si>
-    <t>Type of specialty needed</t>
-  </si>
-  <si>
-    <t>The specialty of a practitioner that would be required to perform the service requested in this appointment.</t>
-  </si>
-  <si>
-    <t>Additional details about where the content was created (e.g. clinical specialty).</t>
-  </si>
-  <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-practitioner-specialty</t>
-  </si>
-  <si>
-    <t>Schedule.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|PractitionerRole|http://interopsante.org/fhir/StructureDefinition/FrRelatedPerson|http://interopsante.org/fhir/StructureDefinition/FrHealthcareService|http://interopsante.org/fhir/StructureDefinition/FrLocation|http://interopsante.org/fhir/StructureDefinition/FrPatient|http://interopsante.org/fhir/StructureDefinition/FrPractitioner)
-</t>
-  </si>
-  <si>
-    <t>Resource(s) that availability information is being provided for</t>
-  </si>
-  <si>
-    <t>Slots that reference this schedule resource provide the availability details to these referenced resource(s).</t>
-  </si>
-  <si>
-    <t>The capacity to support multiple referenced resource types should be used in cases where the specific resources themselves cannot be scheduled without the other, and thus only make sense to the system exposing them as a group. Common examples of this are where the combination of a practitioner and a room (Location) are always required by a system.</t>
-  </si>
-  <si>
-    <t>Schedule.planningHorizon</t>
-  </si>
-  <si>
     <t>Period of time covered by schedule</t>
   </si>
   <si>
     <t>The period of time that the slots that reference this Schedule resource cover (even if none exist). These  cover the amount of time that an organization's planning horizon; the interval for which they are currently accepting appointments. This does not define a "template" for planning outside these dates.</t>
   </si>
   <si>
+    <t>DTSTART:20131201T003000Z DTEND:2014030101T003000Z</t>
+  </si>
+  <si>
+    <t>FiveWs.planned</t>
+  </si>
+  <si>
     <t>Schedule.comment</t>
   </si>
   <si>
@@ -762,7 +808,7 @@
     <t>Comments on the availability to describe any extended information. Such as custom constraints on the slots that may be associated.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+    <t>COMMENT:(comment) If there is no comment, then the line can be excluded from the iCalendar entry</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1077,7 +1123,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="38.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.83203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.66796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1095,13 +1141,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.6328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.43359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -1111,6 +1157,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1222,6 +1271,15 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -1232,911 +1290,988 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AM2" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM3" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM4" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>100</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM5" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM6" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM8" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AG9" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM9" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM10" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="11">
@@ -2144,134 +2279,143 @@
         <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>142</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>145</v>
@@ -2280,1703 +2424,1947 @@
         <v>146</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="O12" t="s" s="2">
         <v>147</v>
       </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>154</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM13" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>131</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM15" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>103</v>
+        <v>176</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>166</v>
+        <v>79</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="AC18" s="2"/>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>199</v>
+        <v>115</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O21" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>206</v>
+        <v>115</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Q23" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="Y23" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z23" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>222</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>217</v>
+        <v>156</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>228</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>171</v>
+        <v>224</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>237</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>197</v>
+        <v>242</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>99</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>244</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>154</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM28" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0-ballot</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T09:01:38+00:00</t>
+    <t>2024-04-29T12:18:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:18:11+00:00</t>
+    <t>2024-04-29T12:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:26:18+00:00</t>
+    <t>2024-04-29T12:27:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:27:28+00:00</t>
+    <t>2024-04-29T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T12:45:28+00:00</t>
+    <t>2024-04-29T12:45:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T15:04:57+00:00</t>
+    <t>2024-04-29T15:06:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-gap-fr-schedule.xlsx
+++ b/main/ig/StructureDefinition-gap-fr-schedule.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T15:06:04+00:00</t>
+    <t>2024-08-26T14:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
